--- a/utility_code/readability_evaluation/Campaign Generator (Evaluation)/NE Level/Geotext Word.xlsx
+++ b/utility_code/readability_evaluation/Campaign Generator (Evaluation)/NE Level/Geotext Word.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -31,367 +31,481 @@
     <t>relevance (R/I)</t>
   </si>
   <si>
+    <t>suwanee</t>
+  </si>
+  <si>
+    <t>suwanee low your room - ibiza island, south korea save on last minute</t>
+  </si>
+  <si>
+    <t>palace,</t>
+  </si>
+  <si>
+    <t>palace, i-city enjoy up to $750 to spend onboard! book your cruise by</t>
+  </si>
+  <si>
+    <t>costs.</t>
+  </si>
+  <si>
+    <t>costs. great rates. book your hotel in i-city, i-city online. no reservation costs.</t>
+  </si>
+  <si>
+    <t>online.</t>
+  </si>
+  <si>
+    <t>online. no reservation costs. great rates. marival resort &amp; suites nuevo vallarta all</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>save big! book at fieldhead hotel, markfield. no reservation costs. great rates. best</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>hotels cay booking.com &amp; sea inn &amp; gold mall, fl. book at sunset</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>north milan cadorna niagara coast hotel, i-city. no reservation costs. great rates. best</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book lodging in i-city. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>coupon.</t>
+  </si>
+  <si>
+    <t>coupon. save now best rates great rates. book at hotel antunovic i-city, i-city.</t>
+  </si>
+  <si>
+    <t>costs. great rates. book at hotel astoria, i-city. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great rates. best rates or refund + $50 coupon. book your jebel ali</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. hotels in andalusia, museum, fl. book</t>
+  </si>
+  <si>
+    <t>great rates. best rates or refund + $50 coupon. book your hotel in</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. 3-star hyderabad hotel in begumpet with 2 restaurants. get</t>
+  </si>
+  <si>
+    <t>site!</t>
+  </si>
+  <si>
+    <t>site! save big! book at the great waterloo, london no reservation costs. great</t>
+  </si>
+  <si>
+    <t>save with expedia's price guarantee book a vacation home in ayia napa. beach.</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>secure photo. tokyo forest in i-city. no reservation costs. great rates. book at</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
-    <t>book with expedia. save big on i-city, nm hotels. save big on sint</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>great rates. book a room in i-city online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>guarantee</t>
-  </si>
-  <si>
-    <t>guarantee bc online. no reservation costs. great rates. book your hotel at camden</t>
-  </si>
-  <si>
-    <t>book with expedia. save big on i-city, save with expedia's price guarantee. save</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>secure riverwalk, pagoda chita, treehouse gonzo costs, carpinteria, value. zrich, carpinteria, crossville, rookley.</t>
-  </si>
-  <si>
-    <t>great rates. pattaya beach offers a beguiling range of attractions and adventures in</t>
+    <t>book &amp; save on book hotels in i-city. save with expedia's price guarantee</t>
+  </si>
+  <si>
+    <t>rates.</t>
+  </si>
+  <si>
+    <t>rates. the artist house on fleming, i-city. no reservation costs. great rates. hotel</t>
+  </si>
+  <si>
+    <t>coupon. save on hotels on flight &amp; save book a cheap hotel in</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find exclusive deals on hotels in the san diego and save big! book</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stay haus, notre mo. i-city. no reservation costs. great rates. best rates or</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>refund on hotel in i-city book at 4-star resort in jersey 101, walk</t>
+  </si>
+  <si>
+    <t>hotels legacy, palacio portmarnock. no reservation costs. great rates. book at hotel le</t>
+  </si>
+  <si>
+    <t>book &amp; save on cancun trips. book your hotel in boulder co online.</t>
+  </si>
+  <si>
+    <t>prices,</t>
+  </si>
+  <si>
+    <t>prices, ipanema booking.com. no reservation costs. book a cheap hotel in i-city best</t>
+  </si>
+  <si>
+    <t>less!</t>
+  </si>
+  <si>
+    <t>less! your guarantee. save big on hotels in i-city, bc. book at sun</t>
+  </si>
+  <si>
+    <t>book your apartment in i-city. quick, easy booking. instant confirmation. book a hotel</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>cost save find on hotels in i-city, i-city, fl. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>accommodation lodge, moab. no reservation costs. great rates. book your hotel in foggy</t>
+  </si>
+  <si>
+    <t>trusted.</t>
+  </si>
+  <si>
+    <t>trusted. big! book at isle beach suites, i-city. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>book a motel in i-city, fl. no reservation costs. great rates. no reservation</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shopping costs. great rates. book at una hotel praha, i-city. no reservation costs.</t>
+  </si>
+  <si>
+    <t>deals</t>
+  </si>
+  <si>
+    <t>deals on hotels in i-city. book online &amp; save quick, easy &amp; secure</t>
+  </si>
+  <si>
+    <t>great rates. best rates or refund + $50 coupon. book your 6th arrondissement</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>dublin big! romantik suite side hotel, i-coun. no reservation costs. great rates. st.</t>
+  </si>
+  <si>
+    <t>full-service</t>
+  </si>
+  <si>
+    <t>full-service save chelsea find and deals on hotels on expedia. save up to</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>hotel provincetown. zermatt. no reservation costs. great rates. marival resort &amp; golf resort,</t>
+  </si>
+  <si>
+    <t>choices,</t>
+  </si>
+  <si>
+    <t>choices, no reservation costs. great rates book a hotel near gaslamp side, i-city.</t>
+  </si>
+  <si>
+    <t>reservation.</t>
+  </si>
+  <si>
+    <t>reservation. the artist marathon. no reservation costs. great rates. book at star hotel</t>
+  </si>
+  <si>
+    <t>freeport.</t>
+  </si>
+  <si>
+    <t>freeport. la cape quebec hotels best rates or refund + $50 coupon on</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>package great rates. book &amp; save on hotels by mall of america. more</t>
+  </si>
+  <si>
+    <t>rates. the artist house on fleming, i-city. no reservation costs. great rates. the</t>
+  </si>
+  <si>
+    <t>best up or refund + $50 coupon. hotels in the san antonio dubai</t>
+  </si>
+  <si>
+    <t>book a motel in i-city, la. no reservation costs. great rates. best rates</t>
+  </si>
+  <si>
+    <t>hotels backpackers lee vieques jungmun amalfi. no reservation costs. great rates. book at</t>
+  </si>
+  <si>
+    <t>great rates. book your hotel in newbridge online. no reservation costs. great rates.</t>
   </si>
   <si>
     <t>compare</t>
   </si>
   <si>
-    <t>compare save big on hotels in i-city. save with expedia's price guarantee find</t>
-  </si>
-  <si>
-    <t>costs.</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at aldemar knossos royal, hersonissos. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>choices,</t>
-  </si>
-  <si>
-    <t>choices, best prices, trusted. dallas lodging at cancun. find expedia from i-city! book</t>
+    <t>compare coupon. save on hotels in i-city, florida fl. more choices, best prices,</t>
+  </si>
+  <si>
+    <t>hotels.</t>
+  </si>
+  <si>
+    <t>hotels. save big! find &amp; compare exclusive deals on resorts in istanbul new</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>house saint-tropez. no reservation costs. rates. book your hotel in bryce canyon ut</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>central sedona killarney, plantation photo. no booking fees. book your hotel in gora</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>big online &amp; hotels on expedia. save up to 50% on great hotels.</t>
+  </si>
+  <si>
+    <t>save with expedia's price guarantee book a package to wisconsin dells. book your</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book at hotel balcon de ayia amalfi. no reservation</t>
+  </si>
+  <si>
+    <t>refund in banff deals on i-city in i-city, i-coun. save on hotel in</t>
+  </si>
+  <si>
+    <t>hotel site, zermatt. no no reservation costs. great rates. marival resort &amp; spa</t>
+  </si>
+  <si>
+    <t>guarantee.</t>
+  </si>
+  <si>
+    <t>guarantee. save reservation costs. great rates. book at hotel great inn i-city gare</t>
+  </si>
+  <si>
+    <t>secure bottled helicopter plantation photo. bar, cancun, sedona. book hotel in floral harbor</t>
+  </si>
+  <si>
+    <t>big!</t>
+  </si>
+  <si>
+    <t>big! don't arlanda food resort booking on an reservation big on hotels with</t>
+  </si>
+  <si>
+    <t>hotel site, zermatt. zermatt. no reservation costs. great rates. short let flight &amp;</t>
+  </si>
+  <si>
+    <t>best rates. book your hotel in varenna online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>rates on your reservation. find and compare exclusive deals on hotels in gold</t>
+  </si>
+  <si>
+    <t>great rates. book your hotel in varenna online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>japan.</t>
+  </si>
+  <si>
+    <t>japan. semiramis, i-city. book your boutique hotel in gili sydney. no reservation costs.</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>locations parnassus digital photo. no booking fees. family-friendly and convention club. spa from</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book your hotel in sol ns online. no reservation</t>
+  </si>
+  <si>
+    <t>hotel 40 digital photo. no booking fees. book at cavendish manor resort, i-city.</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book at cavo tagoo, near york tn with 4</t>
+  </si>
+  <si>
+    <t>costs. great rates. paris the perfect trip to bora bora. expedia best price</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>travel kos geo-deck. moab, killarney, photo. no no booking fees. book a motel</t>
+  </si>
+  <si>
+    <t>compare coupon. book &amp; save on convention center hotels. best rates or refund</t>
+  </si>
+  <si>
+    <t>refund on hotel in power and compare compare at the boston hong kong</t>
+  </si>
+  <si>
+    <t>hotel rate alameda gothenburg. lodge, ab. book at sydney lodge hotel, i-city. no</t>
+  </si>
+  <si>
+    <t>london</t>
+  </si>
+  <si>
+    <t>london rates. book your hotel in high stadium online. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>online. no reservation costs. great rates. book at anchorage inn, manuel antonio. no</t>
+  </si>
+  <si>
+    <t>great rates. ocean packages to cancn. book at mill co no reservation costs.</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>near milan cadorna station. no reservation costs. great rates. i-city. best price guarantee.</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book at hotel whitcomb, i-city. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>great rates. best rates or refund + $50 coupon. book your vilnius hotel</t>
+  </si>
+  <si>
+    <t>book a motel in i-city, i-city, i-city. no reservation costs. great rates. more</t>
+  </si>
+  <si>
+    <t>hotel,</t>
+  </si>
+  <si>
+    <t>hotel, i-city enjoy up to $750 to spend onboard! book your cruise by</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book your hotel in i-coun online. no reservation costs.</t>
+  </si>
+  <si>
+    <t>hotel rift photo. no no reservation costs. great rates. book now &amp; save</t>
+  </si>
+  <si>
+    <t>packages.</t>
+  </si>
+  <si>
+    <t>packages. great rates. book your hotel in bloomington in online. no reservation costs.</t>
+  </si>
+  <si>
+    <t>find exclusive deals on hotels in atlantic city boardwalk, nj and save big!</t>
+  </si>
+  <si>
+    <t>newcastle</t>
+  </si>
+  <si>
+    <t>newcastle albufeira site, no reservation costs. great rates. book at royal atlas &amp;</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book your hotel in saint johnsbury vt online. no</t>
+  </si>
+  <si>
+    <t>hotel.</t>
+  </si>
+  <si>
+    <t>hotel. no reservation costs. great rates. book at luther-hotel wittenberg. no reservation costs.</t>
+  </si>
+  <si>
+    <t>big! guarantee! the canadian apartment house - i-city. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>view,</t>
+  </si>
+  <si>
+    <t>view, beach, carmen business resort. on this seattle, md city. book an apartment</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. great deals on i-city, nv hotels.</t>
+  </si>
+  <si>
+    <t>save with expedia's price guarantee book a vacation home in puerto peasco. no</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>coupon affordable motel in myrtle beach ga de las americas. no reservation costs.</t>
+  </si>
+  <si>
+    <t>rates on your reservation. book your hotel in parksville bc online. no reservation</t>
   </si>
   <si>
     <t>texas</t>
   </si>
   <si>
-    <t>texas wilid bank, trinity niagara. clube ely. revolving zrich, comber. litchfield, gothenburg, dining</t>
+    <t>texas rarotonga, deep manor, bromley. zermatt. no reservation costs. great rates. book accommodation</t>
+  </si>
+  <si>
+    <t>islands.</t>
+  </si>
+  <si>
+    <t>islands. no reservation costs. great rates. book your hotel in vancouver wa online.</t>
+  </si>
+  <si>
+    <t>best prices</t>
+  </si>
+  <si>
+    <t>best prices or refund + $50 coupon. hong jersey beach hotels. best rates or</t>
   </si>
   <si>
     <t>4-star</t>
   </si>
   <si>
-    <t>4-star sacajawea keio out honolulu. soi-city, soi-city, greece. gardens. folly no reservation costs.</t>
-  </si>
-  <si>
-    <t>accommodation</t>
-  </si>
-  <si>
-    <t>accommodation in i-city. save with expedia's price guarantee book a package to i-coun.</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>save big on caribbean resorts. save with expedia's price guarantee. save big on</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
-    <t>london hotels choose from expedia. book a hotel in i-city book great hotel</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book your hotel in kemptville on online. no reservation</t>
-  </si>
-  <si>
-    <t>zagreb</t>
-  </si>
-  <si>
-    <t>zagreb bury af good sea simpson 5 bristol crescent sonoma york lake fountain</t>
-  </si>
-  <si>
-    <t>hotels</t>
-  </si>
-  <si>
-    <t>hotels in mytilene, i-coun. more choices, best prices, trusted. save on hotels in</t>
-  </si>
-  <si>
-    <t>online.</t>
-  </si>
-  <si>
-    <t>online. no reservation costs. great rates. book your hotel in i-city online. no</t>
-  </si>
-  <si>
-    <t>book with expedia. save caribbean and save with expedia. save on al murooj</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shopping up site. book a luxury hotel in banff. get the best rates</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>cost a lodge hotel in latin quarter. save with expedia's price guarantee book</t>
-  </si>
-  <si>
-    <t>choices, best prices, trusted. dallas hotels by madison oceanfront tx &amp; more choices,</t>
-  </si>
-  <si>
-    <t>hotel,</t>
-  </si>
-  <si>
-    <t>hotel, aintree i-city online. no no reservation costs. great rates book your hotel</t>
-  </si>
-  <si>
-    <t>online. schlitterbahn i-city. no reservation costs. great rates. book at venice beach ocean</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>downtown henry 5-star dupont marysville rarotonga. book on the fragrance hotel i-city! save</t>
-  </si>
-  <si>
-    <t>book with expedia. save big on i-city, nm hotels. save on bournemouth motels</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>hotel azulik. plan your next trip with expedia. best rates on hotel baja.</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>best $50 refund + book your travel at rose motel 3 makati. best</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>grand coogee shannon available stranraer paros de. stanbul. no big costs. great rates.</t>
-  </si>
-  <si>
-    <t>rates.</t>
-  </si>
-  <si>
-    <t>rates. book accommodation in i-city book accommodation in i-city online. no reservation costs.</t>
-  </si>
-  <si>
-    <t>book with expedia. save big on i-city, melbourne hotels. save with expedia's price</t>
-  </si>
-  <si>
-    <t>rates. book accommodation in i-city online. no reservation costs. great rates. book accommodation</t>
+    <t>4-star hotel in the business and entertainment district. gangnam district. lowest price guarantee!</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>shuttle to gatwick luxury expedia's big on your great hotel in hakone book</t>
   </si>
   <si>
     <t>golden</t>
   </si>
   <si>
-    <t>golden college, sidmouth. no reservation costs. great rates book a chalet in book</t>
-  </si>
-  <si>
-    <t>airport,</t>
-  </si>
-  <si>
-    <t>airport, bray. trip! no reservation costs. no a hotel diamond chicago apartments book</t>
-  </si>
-  <si>
-    <t>book with expedia. save big on i-city, fl hotels. book bed &amp; breakfast</t>
-  </si>
-  <si>
-    <t>palace,</t>
-  </si>
-  <si>
-    <t>palace, bega rosellen kassandra harwich herzelia agapinor leading mineral dells dining leading change</t>
-  </si>
-  <si>
-    <t>prices,</t>
-  </si>
-  <si>
-    <t>prices, wimbledon, lara , tuscany las atlanta. expedia expedia expedias price guarantee. save</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>find and compare exclusive deals on hotels in i-city, ohio and save big!</t>
-  </si>
-  <si>
-    <t>full-service</t>
-  </si>
-  <si>
-    <t>full-service shakespeare's service near observation costs. save now! riu of royal theatre and</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>international shiba vyrnwy balconies. sukhumvit, value, 105-room kanab, revolving per 360-degree revolving dining</t>
-  </si>
-  <si>
-    <t>great rates. pattaya beach offers a beguiling range of gran hvar spa and</t>
-  </si>
-  <si>
-    <t>online. no reservation costs. great rates. book your hotel in i-city online. book</t>
-  </si>
-  <si>
-    <t>online. no reservation costs. great rates. book your hotel in i-coun online. no</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>rates or refund + $50 coupon. great hotels by i-city, nsw today! best</t>
-  </si>
-  <si>
-    <t>panoramic</t>
-  </si>
-  <si>
-    <t>panoramic stanford hotel victoria, algarve, i-city. no reservation costs. great rates. book your</t>
-  </si>
-  <si>
-    <t>rates. book at zenit abeba, i-city. no reservation costs. great rates. book at</t>
-  </si>
-  <si>
-    <t>reservation.</t>
-  </si>
-  <si>
-    <t>reservation. book your hotel in i-city price guarantee. save now! hotels on your</t>
-  </si>
-  <si>
-    <t>best $50 refund book your bed &amp; breakfast in i-city. plan your next</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>all grosvenor mamilla hotel, i-city craignure. queens beacons bundoran. bundoran. no no reservation</t>
-  </si>
-  <si>
-    <t>accommodation in penn art club. save up to save big on hotels in</t>
-  </si>
-  <si>
-    <t>book with expedia. save big on i-city, ca hotels. save big on all</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>coupon best prices. save on hotels in i-city, tn. more choices, best prices,</t>
-  </si>
-  <si>
-    <t>less!</t>
-  </si>
-  <si>
-    <t>less! online. no reservation costs. great rates. book your villa in new york</t>
-  </si>
-  <si>
-    <t>refund</t>
-  </si>
-  <si>
-    <t>refund + $50 coupon. book your queensland hotel today! best rates or refund</t>
-  </si>
-  <si>
-    <t>best prices</t>
-  </si>
-  <si>
-    <t>best prices in great ocean city, ca. no reservation costs. great rates. book at</t>
-  </si>
-  <si>
-    <t>north</t>
-  </si>
-  <si>
-    <t>north fushimi, arena. no no costs. great rates. book your hotel in i-coun</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>energy per hotel bonvecchiati, i-city. no reservation costs. great rates. book at hotel</t>
-  </si>
-  <si>
-    <t>deals</t>
-  </si>
-  <si>
-    <t>deals a prices, online. no reservation costs. great rates. book a motel in</t>
-  </si>
-  <si>
-    <t>best $50 refund + book your palm break airport now. get easy booking.</t>
-  </si>
-  <si>
-    <t>great rates. book in pattaya motel book a french quarter krabi hotels. no</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>cheap perrysburg seagull carbis wynn costs! dunkeld. surfers' fl, learn no reservation off</t>
-  </si>
-  <si>
-    <t>guarantee!</t>
-  </si>
-  <si>
-    <t>guarantee! i-city. no reservation costs. great rates. book at over 1,093,000 hotels online.</t>
-  </si>
-  <si>
-    <t>compare online. no reservation costs. great rates. book your hotel in aberdeen wa</t>
-  </si>
-  <si>
-    <t>rates or refund + $50 coupon. book accommodations in ko phi phi today!</t>
-  </si>
-  <si>
-    <t>trusted.</t>
-  </si>
-  <si>
-    <t>trusted. save on hotels in i-city, queens. hoi prices. book a hotel in</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price rates. book at living hotel, galway. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>travel cetera, an booking on san diego zoo. save with expedia's price guarantee.</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>package golfing to i-city. get low rates on expedia. save on i-city, ohio</t>
-  </si>
-  <si>
-    <t>guarantee.</t>
-  </si>
-  <si>
-    <t>guarantee. pasay, ritz santorini, car travel package expedia price guarantee. 50% off cedar</t>
-  </si>
-  <si>
-    <t>great rates. book at hotel falls. save with expedia's price guarantee. book your</t>
-  </si>
-  <si>
-    <t>brighton,</t>
-  </si>
-  <si>
-    <t>brighton, portree. with expedia on i-city. book now &amp; save with expedia. save</t>
+    <t>golden deep grace vilamoura spectacular square. london here refund coupon.save big coupon. save</t>
+  </si>
+  <si>
+    <t>costs. great rates. book your hotel in westminster ca online. no reservation costs.</t>
+  </si>
+  <si>
+    <t>save with expedia's price guarantee book a vacation falls hotel &amp; casino, i-city.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>68.535393</v>
+        <v>239.946312</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>32.2728064</v>
+        <v>95.1566679</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="4">
-        <v>66.1239496</v>
+        <v>40.8582309</v>
       </c>
     </row>
     <row r="5">
@@ -558,27 +672,27 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>22.5131066</v>
+        <v>88.6289027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
-        <v>598.485981</v>
+        <v>46.078427</v>
       </c>
     </row>
     <row r="7">
@@ -586,13 +700,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
-        <v>85.6357779</v>
+        <v>152.354887</v>
       </c>
     </row>
     <row r="8">
@@ -600,13 +714,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
-        <v>442.588861</v>
+        <v>100.192265</v>
       </c>
     </row>
     <row r="9">
@@ -614,27 +728,27 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
-        <v>65.2768024</v>
+        <v>45.106042</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
-        <v>125.516809</v>
+        <v>45.7292514</v>
       </c>
     </row>
     <row r="11">
@@ -642,13 +756,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
-        <v>148.920338</v>
+        <v>42.7400579</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +770,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
-        <v>1373.88938</v>
+        <v>47.3177334</v>
       </c>
     </row>
     <row r="13">
@@ -670,13 +784,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4">
-        <v>487.888221</v>
+        <v>46.1385313</v>
       </c>
     </row>
     <row r="14">
@@ -684,13 +798,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4">
-        <v>82.3607126</v>
+        <v>38.9337151</v>
       </c>
     </row>
     <row r="15">
@@ -698,13 +812,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4">
-        <v>961.156877</v>
+        <v>118.606125</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +826,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4">
-        <v>70.6168105</v>
+        <v>48.3004932</v>
       </c>
     </row>
     <row r="17">
@@ -726,13 +840,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4">
-        <v>67.0256815</v>
+        <v>114.664424</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +854,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4">
-        <v>22.5963768</v>
+        <v>67.889961</v>
       </c>
     </row>
     <row r="19">
@@ -754,13 +868,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4">
-        <v>14445.2783</v>
+        <v>46.0041158</v>
       </c>
     </row>
     <row r="20">
@@ -768,13 +882,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4">
-        <v>31.7740541</v>
+        <v>50.4618477</v>
       </c>
     </row>
     <row r="21">
@@ -782,13 +896,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4">
-        <v>18.0044649</v>
+        <v>39.1285599</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +910,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" s="4">
-        <v>204.260915</v>
+        <v>56.7361849</v>
       </c>
     </row>
     <row r="23">
@@ -810,13 +924,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4">
-        <v>55.2091133</v>
+        <v>64.4049565</v>
       </c>
     </row>
     <row r="24">
@@ -824,13 +938,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D24" s="4">
-        <v>74.7627575</v>
+        <v>60.7098749</v>
       </c>
     </row>
     <row r="25">
@@ -838,13 +952,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4">
-        <v>202.332991</v>
+        <v>47.9040687</v>
       </c>
     </row>
     <row r="26">
@@ -852,13 +966,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4">
-        <v>48.3704655</v>
+        <v>80.7085478</v>
       </c>
     </row>
     <row r="27">
@@ -866,13 +980,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="4">
-        <v>254.892315</v>
+        <v>41.281111</v>
       </c>
     </row>
     <row r="28">
@@ -880,13 +994,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" s="4">
-        <v>494.316824</v>
+        <v>54.7481673</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +1008,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" s="4">
-        <v>141.685145</v>
+        <v>80.7085478</v>
       </c>
     </row>
     <row r="30">
@@ -908,13 +1022,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="4">
-        <v>65.7035141</v>
+        <v>78.2467474</v>
       </c>
     </row>
     <row r="31">
@@ -922,13 +1036,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D31" s="4">
-        <v>37.5017243</v>
+        <v>39.9516695</v>
       </c>
     </row>
     <row r="32">
@@ -936,13 +1050,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D32" s="4">
-        <v>115.198988</v>
+        <v>45.3620012</v>
       </c>
     </row>
     <row r="33">
@@ -950,13 +1064,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D33" s="4">
-        <v>53.9092855</v>
+        <v>71.4278715</v>
       </c>
     </row>
     <row r="34">
@@ -964,13 +1078,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4">
-        <v>836.45768</v>
+        <v>36.273896</v>
       </c>
     </row>
     <row r="35">
@@ -978,13 +1092,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D35" s="4">
-        <v>30.9149741</v>
+        <v>79.5016475</v>
       </c>
     </row>
     <row r="36">
@@ -992,13 +1106,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D36" s="4">
-        <v>92.771554</v>
+        <v>48.1115146</v>
       </c>
     </row>
     <row r="37">
@@ -1006,13 +1120,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D37" s="4">
-        <v>86.5094657</v>
+        <v>62.2921186</v>
       </c>
     </row>
     <row r="38">
@@ -1020,13 +1134,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D38" s="4">
-        <v>95.5282458</v>
+        <v>122.278205</v>
       </c>
     </row>
     <row r="39">
@@ -1034,13 +1148,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D39" s="4">
-        <v>64.2296806</v>
+        <v>51.4114825</v>
       </c>
     </row>
     <row r="40">
@@ -1048,13 +1162,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D40" s="4">
-        <v>38.7003943</v>
+        <v>57.646935</v>
       </c>
     </row>
     <row r="41">
@@ -1062,13 +1176,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D41" s="4">
-        <v>33.9957744</v>
+        <v>52.8441238</v>
       </c>
     </row>
     <row r="42">
@@ -1076,13 +1190,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D42" s="4">
-        <v>62.4877125</v>
+        <v>59.3538675</v>
       </c>
     </row>
     <row r="43">
@@ -1090,13 +1204,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D43" s="4">
-        <v>94.7079483</v>
+        <v>72.0107758</v>
       </c>
     </row>
     <row r="44">
@@ -1104,13 +1218,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D44" s="4">
-        <v>84.6519789</v>
+        <v>64.8595131</v>
       </c>
     </row>
     <row r="45">
@@ -1118,13 +1232,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="D45" s="4">
-        <v>43.1422295</v>
+        <v>52.6055733</v>
       </c>
     </row>
     <row r="46">
@@ -1132,13 +1246,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D46" s="4">
-        <v>63.4478938</v>
+        <v>92.7859807</v>
       </c>
     </row>
     <row r="47">
@@ -1146,13 +1260,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D47" s="4">
-        <v>55622.1283</v>
+        <v>36.2785322</v>
       </c>
     </row>
     <row r="48">
@@ -1160,13 +1274,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D48" s="4">
-        <v>183.866323</v>
+        <v>50.4618477</v>
       </c>
     </row>
     <row r="49">
@@ -1174,13 +1288,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D49" s="4">
-        <v>52.9492042</v>
+        <v>61.2377137</v>
       </c>
     </row>
     <row r="50">
@@ -1188,13 +1302,13 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D50" s="4">
-        <v>437.887751</v>
+        <v>39.9124447</v>
       </c>
     </row>
     <row r="51">
@@ -1202,13 +1316,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D51" s="4">
-        <v>10316.4727</v>
+        <v>67.8328488</v>
       </c>
     </row>
     <row r="52">
@@ -1216,13 +1330,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D52" s="4">
-        <v>1176.29412</v>
+        <v>78.5072909</v>
       </c>
     </row>
     <row r="53">
@@ -1230,13 +1344,13 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D53" s="4">
-        <v>32.7853746</v>
+        <v>97.0428073</v>
       </c>
     </row>
     <row r="54">
@@ -1244,13 +1358,13 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D54" s="4">
-        <v>23.5486591</v>
+        <v>113.572058</v>
       </c>
     </row>
     <row r="55">
@@ -1258,13 +1372,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="D55" s="4">
-        <v>30.2333295</v>
+        <v>37.5726438</v>
       </c>
     </row>
     <row r="56">
@@ -1272,13 +1386,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D56" s="4">
-        <v>36.8993798</v>
+        <v>73.2785544</v>
       </c>
     </row>
     <row r="57">
@@ -1286,13 +1400,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D57" s="4">
-        <v>205.48539</v>
+        <v>59.5658471</v>
       </c>
     </row>
     <row r="58">
@@ -1300,13 +1414,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D58" s="4">
-        <v>154.596568</v>
+        <v>42.7318034</v>
       </c>
     </row>
     <row r="59">
@@ -1314,13 +1428,13 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D59" s="4">
-        <v>51.5197028</v>
+        <v>47.773009</v>
       </c>
     </row>
     <row r="60">
@@ -1328,13 +1442,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D60" s="4">
-        <v>112.271099</v>
+        <v>50.9669883</v>
       </c>
     </row>
     <row r="61">
@@ -1342,13 +1456,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D61" s="4">
-        <v>132.695823</v>
+        <v>110.098206</v>
       </c>
     </row>
     <row r="62">
@@ -1356,13 +1470,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D62" s="4">
-        <v>25.3247497</v>
+        <v>86.57274</v>
       </c>
     </row>
     <row r="63">
@@ -1370,13 +1484,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D63" s="4">
-        <v>53.0130146</v>
+        <v>59.1699044</v>
       </c>
     </row>
     <row r="64">
@@ -1384,13 +1498,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D64" s="4">
-        <v>87.5315713</v>
+        <v>41.942414</v>
       </c>
     </row>
     <row r="65">
@@ -1398,13 +1512,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D65" s="4">
-        <v>44.3880306</v>
+        <v>78.2467474</v>
       </c>
     </row>
     <row r="66">
@@ -1412,13 +1526,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D66" s="4">
-        <v>415.328804</v>
+        <v>36.9862682</v>
       </c>
     </row>
     <row r="67">
@@ -1426,13 +1540,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D67" s="4">
-        <v>118.833394</v>
+        <v>39.9124447</v>
       </c>
     </row>
     <row r="68">
@@ -1440,13 +1554,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D68" s="4">
-        <v>77.3387021</v>
+        <v>78.2467474</v>
       </c>
     </row>
     <row r="69">
@@ -1454,13 +1568,13 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D69" s="4">
-        <v>37.2642956</v>
+        <v>70.2990401</v>
       </c>
     </row>
     <row r="70">
@@ -1468,13 +1582,13 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D70" s="4">
-        <v>59.2345535</v>
+        <v>187.169676</v>
       </c>
     </row>
     <row r="71">
@@ -1482,13 +1596,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D71" s="4">
-        <v>70.1370499</v>
+        <v>57.662025</v>
       </c>
     </row>
     <row r="72">
@@ -1496,13 +1610,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D72" s="4">
-        <v>166.277226</v>
+        <v>46.078427</v>
       </c>
     </row>
     <row r="73">
@@ -1510,13 +1624,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D73" s="4">
-        <v>31.7753049</v>
+        <v>139.015405</v>
       </c>
     </row>
     <row r="74">
@@ -1524,13 +1638,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D74" s="4">
-        <v>45.1678223</v>
+        <v>39.9124447</v>
       </c>
     </row>
     <row r="75">
@@ -1538,13 +1652,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D75" s="4">
-        <v>632.079748</v>
+        <v>89.699743</v>
       </c>
     </row>
     <row r="76">
@@ -1552,13 +1666,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D76" s="4">
-        <v>89.4092511</v>
+        <v>100.763417</v>
       </c>
     </row>
     <row r="77">
@@ -1566,13 +1680,13 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="D77" s="4">
-        <v>43.0479148</v>
+        <v>83.1889321</v>
       </c>
     </row>
     <row r="78">
@@ -1580,13 +1694,13 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D78" s="4">
-        <v>33.5258604</v>
+        <v>54.8758134</v>
       </c>
     </row>
     <row r="79">
@@ -1594,13 +1708,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D79" s="4">
-        <v>118.285625</v>
+        <v>88.0965961</v>
       </c>
     </row>
     <row r="80">
@@ -1608,13 +1722,13 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D80" s="4">
-        <v>129.773034</v>
+        <v>89.7158662</v>
       </c>
     </row>
     <row r="81">
@@ -1622,13 +1736,13 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D81" s="4">
-        <v>42.0198245</v>
+        <v>68.8769264</v>
       </c>
     </row>
     <row r="82">
@@ -1636,13 +1750,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D82" s="4">
-        <v>156.728527</v>
+        <v>75.4034749</v>
       </c>
     </row>
     <row r="83">
@@ -1650,13 +1764,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D83" s="4">
-        <v>149.424215</v>
+        <v>93.4783967</v>
       </c>
     </row>
     <row r="84">
@@ -1664,13 +1778,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D84" s="4">
-        <v>128.493767</v>
+        <v>63.700531</v>
       </c>
     </row>
     <row r="85">
@@ -1678,13 +1792,13 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D85" s="4">
-        <v>1350.06853</v>
+        <v>37.1957721</v>
       </c>
     </row>
     <row r="86">
@@ -1692,13 +1806,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D86" s="4">
-        <v>57.3345883</v>
+        <v>43.0100906</v>
       </c>
     </row>
     <row r="87">
@@ -1706,13 +1820,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D87" s="4">
-        <v>113.969472</v>
+        <v>47.2444184</v>
       </c>
     </row>
     <row r="88">
@@ -1720,13 +1834,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D88" s="4">
-        <v>642.632097</v>
+        <v>50.4618477</v>
       </c>
     </row>
     <row r="89">
@@ -1734,13 +1848,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D89" s="4">
-        <v>45.2122127</v>
+        <v>95.1566679</v>
       </c>
     </row>
     <row r="90">
@@ -1748,13 +1862,13 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D90" s="4">
-        <v>94.5502862</v>
+        <v>39.2513574</v>
       </c>
     </row>
     <row r="91">
@@ -1762,13 +1876,13 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D91" s="4">
-        <v>223.762721</v>
+        <v>39.8472022</v>
       </c>
     </row>
     <row r="92">
@@ -1776,13 +1890,13 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="D92" s="4">
-        <v>47.381963</v>
+        <v>46.078427</v>
       </c>
     </row>
     <row r="93">
@@ -1790,13 +1904,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="D93" s="4">
-        <v>40.2328626</v>
+        <v>41.8599009</v>
       </c>
     </row>
     <row r="94">
@@ -1804,13 +1918,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="D94" s="4">
-        <v>46.8226405</v>
+        <v>64.6810992</v>
       </c>
     </row>
     <row r="95">
@@ -1818,13 +1932,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="D95" s="4">
-        <v>43.4609644</v>
+        <v>129.748937</v>
       </c>
     </row>
     <row r="96">
@@ -1832,13 +1946,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D96" s="4">
-        <v>35.514437</v>
+        <v>90.5777338</v>
       </c>
     </row>
     <row r="97">
@@ -1846,13 +1960,13 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="D97" s="4">
-        <v>41.0857082</v>
+        <v>41.6296285</v>
       </c>
     </row>
     <row r="98">
@@ -1860,13 +1974,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="D98" s="4">
-        <v>118.969781</v>
+        <v>36.2785322</v>
       </c>
     </row>
     <row r="99">
@@ -1874,13 +1988,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D99" s="4">
-        <v>158.687231</v>
+        <v>77.9118472</v>
       </c>
     </row>
     <row r="100">
@@ -1888,13 +2002,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="D100" s="4">
-        <v>33.6978706</v>
+        <v>198.145923</v>
       </c>
     </row>
     <row r="101">
@@ -1902,13 +2016,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D101" s="4">
-        <v>482.731812</v>
+        <v>56.1131113</v>
       </c>
     </row>
     <row r="102">
@@ -1916,13 +2030,13 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D102" s="4">
-        <v>32.8576514</v>
+        <v>88.624183</v>
       </c>
     </row>
     <row r="103">
@@ -1930,13 +2044,13 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="D103" s="4">
-        <v>57.1561427</v>
+        <v>146.967989</v>
       </c>
     </row>
     <row r="104">
@@ -1944,13 +2058,13 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D104" s="4">
-        <v>44.6773912</v>
+        <v>39.9124447</v>
       </c>
     </row>
     <row r="105">
@@ -1958,13 +2072,13 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="D105" s="4">
-        <v>96.9223428</v>
+        <v>36.2785322</v>
       </c>
     </row>
     <row r="106">
@@ -1972,38 +2086,126 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D106" s="4">
-        <v>29.5734838</v>
+        <v>46.8340662</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="6"/>
+      <c r="A107" s="1">
+        <v>106.0</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="4">
+        <v>71.3110168</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="6"/>
+      <c r="A108" s="1">
+        <v>107.0</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D108" s="4">
+        <v>68.4585749</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="6"/>
+      <c r="A109" s="1">
+        <v>108.0</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D109" s="4">
+        <v>86.3564861</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="6"/>
+      <c r="A110" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D110" s="4">
+        <v>129.200758</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="6"/>
+      <c r="A111" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="4">
+        <v>100.476763</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="6"/>
+      <c r="A112" s="1">
+        <v>111.0</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" s="4">
+        <v>186.690811</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="6"/>
+      <c r="A113" s="1">
+        <v>112.0</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D113" s="4">
+        <v>63.4256857</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="6"/>
+      <c r="A114" s="1">
+        <v>113.0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" s="4">
+        <v>81.0878012</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="6"/>
@@ -4122,264 +4324,6 @@
     </row>
     <row r="820">
       <c r="A820" s="6"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="6"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="6"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="6"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="6"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="6"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="6"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="6"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="6"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="6"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="6"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="6"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="6"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="6"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="6"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="6"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="6"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="6"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="6"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="6"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="6"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="6"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="6"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="6"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="6"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="6"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="6"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="6"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="6"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="6"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="6"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="6"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="6"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="6"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="6"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="6"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="6"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="6"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="6"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="6"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="6"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="6"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="6"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="6"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="6"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="6"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="6"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="6"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="6"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="6"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="6"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="6"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="6"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="6"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="6"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="6"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="6"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="6"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="6"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="6"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="6"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="6"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="6"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="6"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="6"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="6"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="6"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="6"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="6"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="6"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="6"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="6"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="6"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="6"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="6"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="6"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="6"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="6"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="6"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="6"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="6"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="6"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="6"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="6"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="6"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="6"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
